--- a/new original/_Lang_Chinese/Lang/CN/Game/CharaText.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1105">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -1375,6 +1375,25 @@
     <t xml:space="preserve">あなたは妹の頭をなでた。
 あなたは妹の姿に目を細めた。
 妹は上目づかいにあなたの顔を覗いた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"o…"
+"ni…"
+"cha…"
+"a…"
+"n…"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「お゛」
+「に゛」
+「ぃ」
+「ち」
+「ゃ」
+「あ゛」
+「ん゛」</t>
   </si>
   <si>
     <t xml:space="preserve">olderyoungersister</t>
@@ -2944,7 +2963,7 @@
   <si>
     <t xml:space="preserve">「異形の森、か…」
 「我等のもたらす真実を彼らはどう受け止めるか」
-「ここもなかな住み心地がよさそうじゃないか」
+「ここもなかなか住み心地がよさそうじゃないか」
 「ヴェルニースまでは&amp;子供の足でも一日でたどり着けるだろう」
 「あの酒場の娘にはまいったな！」
 誰かが弓矢を手入れする音が聞こえた。</t>
@@ -3403,7 +3422,7 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.228</t>
+    <t xml:space="preserve">EA 23.254</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -3440,6 +3459,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.258</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.60</t>
@@ -5166,14 +5188,14 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -5182,7 +5204,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5191,7 +5213,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5205,10 +5227,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C4" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5219,7 +5241,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -5228,7 +5250,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -5244,10 +5266,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C5" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5269,10 +5291,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C6" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5285,7 +5307,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -5294,7 +5316,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -5308,10 +5330,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C7" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5322,7 +5344,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5331,7 +5353,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5347,10 +5369,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C8" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5361,7 +5383,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5370,7 +5392,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5379,7 +5401,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5393,10 +5415,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5407,7 +5429,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5416,7 +5438,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5425,7 +5447,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5439,10 +5461,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C10" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5453,21 +5475,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -5479,10 +5501,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C11" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5493,7 +5515,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5502,7 +5524,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -5511,7 +5533,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5525,10 +5547,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C12" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5539,7 +5561,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5548,7 +5570,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5557,7 +5579,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5571,10 +5593,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C13" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5592,7 +5614,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5608,10 +5630,10 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C14" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5622,7 +5644,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5631,7 +5653,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5640,7 +5662,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5654,10 +5676,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C15" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5693,14 +5715,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5709,7 +5731,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5718,7 +5740,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5732,10 +5754,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C17" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5746,7 +5768,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5755,7 +5777,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5764,7 +5786,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5778,14 +5800,14 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5794,7 +5816,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5803,7 +5825,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5817,14 +5839,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5833,7 +5855,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5842,7 +5864,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5856,10 +5878,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C20" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5870,7 +5892,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5879,7 +5901,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5888,7 +5910,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5902,14 +5924,14 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5918,7 +5940,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5927,7 +5949,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5941,14 +5963,14 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5957,7 +5979,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5966,7 +5988,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5980,10 +6002,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C23" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -6005,10 +6027,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C24" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -6019,7 +6041,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -6028,7 +6050,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -6037,7 +6059,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -6051,14 +6073,14 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -6083,10 +6105,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C26" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -6097,7 +6119,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -6115,10 +6137,10 @@
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C27" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -6127,7 +6149,7 @@
         <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="G27" t="s">
         <v>170</v>
@@ -6147,10 +6169,10 @@
         <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C28" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -6163,7 +6185,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="M28" t="s">
         <v>175</v>
@@ -6172,7 +6194,7 @@
         <v>176</v>
       </c>
       <c r="O28" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="P28" t="s">
         <v>177</v>
@@ -6186,14 +6208,14 @@
         <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="J29" t="s">
         <v>180</v>
@@ -6202,7 +6224,7 @@
         <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="M29" t="s">
         <v>182</v>
@@ -6211,7 +6233,7 @@
         <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="P29" t="s">
         <v>184</v>
@@ -6225,10 +6247,10 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C30" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="D30" t="s">
         <v>187</v>
@@ -6239,7 +6261,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="J30" t="s">
         <v>189</v>
@@ -6248,7 +6270,7 @@
         <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="M30" t="s">
         <v>191</v>
@@ -6257,7 +6279,7 @@
         <v>192</v>
       </c>
       <c r="O30" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="P30" t="s">
         <v>193</v>
@@ -6271,10 +6293,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C31" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6285,7 +6307,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="J31" t="s">
         <v>189</v>
@@ -6294,7 +6316,7 @@
         <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="M31" t="s">
         <v>191</v>
@@ -6303,7 +6325,7 @@
         <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="P31" t="s">
         <v>193</v>
@@ -6317,10 +6339,10 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C32" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6331,7 +6353,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="J32" t="s">
         <v>189</v>
@@ -6340,7 +6362,7 @@
         <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="M32" t="s">
         <v>191</v>
@@ -6349,7 +6371,7 @@
         <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="P32" t="s">
         <v>193</v>
@@ -6363,10 +6385,10 @@
         <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C33" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="D33" t="s">
         <v>202</v>
@@ -6377,7 +6399,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="J33" t="s">
         <v>204</v>
@@ -6386,7 +6408,7 @@
         <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="M33" t="s">
         <v>206</v>
@@ -6395,7 +6417,7 @@
         <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="P33" t="s">
         <v>208</v>
@@ -6409,10 +6431,10 @@
         <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C34" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6423,7 +6445,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -6432,7 +6454,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -6441,7 +6463,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -6455,7 +6477,7 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -6464,7 +6486,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="M35" t="s">
         <v>220</v>
@@ -6473,7 +6495,7 @@
         <v>221</v>
       </c>
       <c r="O35" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="P35" t="s">
         <v>222</v>
@@ -6487,14 +6509,14 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -6503,7 +6525,7 @@
         <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="M36" t="s">
         <v>227</v>
@@ -6512,7 +6534,7 @@
         <v>228</v>
       </c>
       <c r="O36" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="P36" t="s">
         <v>229</v>
@@ -6526,12 +6548,12 @@
         <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="G37" t="s">
         <v>232</v>
@@ -6540,7 +6562,7 @@
         <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="J37" t="s">
         <v>234</v>
@@ -6549,7 +6571,7 @@
         <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="M37" t="s">
         <v>236</v>
@@ -6558,7 +6580,7 @@
         <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="P37" t="s">
         <v>238</v>
@@ -6572,10 +6594,10 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C38" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D38" t="s">
         <v>241</v>
@@ -6625,10 +6647,10 @@
         <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C39" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D39" t="s">
         <v>245</v>
@@ -6637,7 +6659,7 @@
         <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="G39" t="s">
         <v>247</v>
@@ -6646,7 +6668,7 @@
         <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="J39" t="s">
         <v>234</v>
@@ -6655,7 +6677,7 @@
         <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="M39" t="s">
         <v>236</v>
@@ -6664,7 +6686,7 @@
         <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="P39" t="s">
         <v>238</v>
@@ -6678,10 +6700,10 @@
         <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C40" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D40" t="s">
         <v>250</v>
@@ -6703,7 +6725,7 @@
         <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -6721,10 +6743,10 @@
         <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C42" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -6735,7 +6757,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="J42" t="s">
         <v>256</v>
@@ -6744,7 +6766,7 @@
         <v>257</v>
       </c>
       <c r="L42" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="M42" t="s">
         <v>258</v>
@@ -6753,7 +6775,7 @@
         <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="P42" t="s">
         <v>260</v>
@@ -6767,10 +6789,10 @@
         <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C43" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="D43" t="s">
         <v>263</v>
@@ -6781,7 +6803,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="J43" t="s">
         <v>265</v>
@@ -6790,7 +6812,7 @@
         <v>266</v>
       </c>
       <c r="L43" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="M43" t="s">
         <v>267</v>
@@ -6799,7 +6821,7 @@
         <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="P43" t="s">
         <v>269</v>
@@ -6813,14 +6835,14 @@
         <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J44" t="s">
         <v>272</v>
@@ -6829,7 +6851,7 @@
         <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="M44" t="s">
         <v>274</v>
@@ -6838,7 +6860,7 @@
         <v>275</v>
       </c>
       <c r="O44" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
@@ -6850,14 +6872,14 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="J45" t="s">
         <v>278</v>
@@ -6866,7 +6888,7 @@
         <v>279</v>
       </c>
       <c r="L45" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6875,7 +6897,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -6889,7 +6911,7 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -6898,7 +6920,7 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="M46" t="s">
         <v>285</v>
@@ -6907,7 +6929,7 @@
         <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="P46" t="s">
         <v>287</v>
@@ -6921,7 +6943,7 @@
         <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C47" t="s">
         <v>291</v>
@@ -6937,7 +6959,7 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="M47" t="s">
         <v>292</v>
@@ -6946,7 +6968,7 @@
         <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="P47" t="s">
         <v>294</v>
@@ -6960,10 +6982,7 @@
         <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>756</v>
-      </c>
-      <c r="C48" t="s">
-        <v>820</v>
+        <v>771</v>
       </c>
       <c r="D48" t="s">
         <v>297</v>
@@ -6973,255 +6992,246 @@
       </c>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48" t="s">
-        <v>918</v>
-      </c>
       <c r="J48" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K48" t="s">
-        <v>300</v>
-      </c>
-      <c r="L48" t="s">
-        <v>990</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N48" t="s">
-        <v>302</v>
-      </c>
-      <c r="O48" t="s">
-        <v>1064</v>
+        <v>298</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q48" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C49" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E49" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="J49" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K49" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L49" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="M49" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N49" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O49" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="P49" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="Q49" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C50" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E50" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="J50" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K50" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="M50" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O50" t="s">
-        <v>992</v>
+        <v>1069</v>
       </c>
       <c r="P50" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q50" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>752</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
+        <v>759</v>
+      </c>
+      <c r="C51" t="s">
+        <v>826</v>
+      </c>
+      <c r="D51" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" t="s">
+        <v>317</v>
+      </c>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="J51" t="s">
+        <v>318</v>
+      </c>
+      <c r="K51" t="s">
+        <v>319</v>
+      </c>
+      <c r="L51" t="s">
+        <v>996</v>
+      </c>
+      <c r="M51" t="s">
         <v>320</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" t="s">
         <v>321</v>
       </c>
-      <c r="L51" t="s">
-        <v>993</v>
-      </c>
-      <c r="M51" t="s">
-        <v>322</v>
-      </c>
-      <c r="N51" t="s">
-        <v>323</v>
-      </c>
       <c r="O51" t="s">
-        <v>1066</v>
+        <v>996</v>
       </c>
       <c r="P51" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q51" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s">
-        <v>768</v>
-      </c>
-      <c r="C52" t="s">
-        <v>823</v>
-      </c>
-      <c r="D52" t="s">
-        <v>327</v>
-      </c>
-      <c r="E52" t="s">
-        <v>328</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>329</v>
+        <v>925</v>
       </c>
       <c r="J52" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K52" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s">
-        <v>329</v>
+        <v>997</v>
       </c>
       <c r="M52" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>329</v>
+        <v>1070</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" t="s">
+        <v>772</v>
+      </c>
+      <c r="C53" t="s">
+        <v>827</v>
+      </c>
+      <c r="D53" t="s">
         <v>330</v>
       </c>
-      <c r="B53" t="s">
-        <v>769</v>
-      </c>
-      <c r="C53" t="s">
-        <v>824</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>331</v>
-      </c>
-      <c r="E53" t="s">
-        <v>332</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q53" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54">
@@ -7229,10 +7239,10 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C54" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7243,31 +7253,31 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q54" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
@@ -7275,10 +7285,10 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C55" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7289,31 +7299,31 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56">
@@ -7321,10 +7331,10 @@
         <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="C56" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D56" t="s">
         <v>340</v>
@@ -7335,116 +7345,116 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="s">
-        <v>922</v>
+        <v>332</v>
       </c>
       <c r="J56" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K56" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L56" t="s">
-        <v>994</v>
+        <v>332</v>
       </c>
       <c r="M56" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="N56" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="O56" t="s">
-        <v>1067</v>
+        <v>332</v>
       </c>
       <c r="P56" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="Q56" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s">
-        <v>752</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
+        <v>757</v>
+      </c>
+      <c r="C57" t="s">
+        <v>831</v>
+      </c>
+      <c r="D57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E57" t="s">
+        <v>344</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="J57" t="s">
+        <v>345</v>
+      </c>
+      <c r="K57" t="s">
+        <v>346</v>
+      </c>
+      <c r="L57" t="s">
+        <v>998</v>
+      </c>
+      <c r="M57" t="s">
+        <v>347</v>
+      </c>
+      <c r="N57" t="s">
+        <v>348</v>
+      </c>
+      <c r="O57" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P57" t="s">
         <v>349</v>
       </c>
-      <c r="K57" t="s">
+      <c r="Q57" t="s">
         <v>350</v>
-      </c>
-      <c r="L57" t="s">
-        <v>995</v>
-      </c>
-      <c r="M57" t="s">
-        <v>351</v>
-      </c>
-      <c r="N57" t="s">
-        <v>352</v>
-      </c>
-      <c r="O57" t="s">
-        <v>1068</v>
-      </c>
-      <c r="P57" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>752</v>
-      </c>
-      <c r="C58" t="s">
-        <v>828</v>
-      </c>
-      <c r="D58" t="s">
-        <v>356</v>
-      </c>
-      <c r="E58" t="s">
-        <v>357</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="s">
-        <v>165</v>
+        <v>927</v>
       </c>
       <c r="J58" t="s">
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="K58" t="s">
-        <v>165</v>
+        <v>353</v>
       </c>
       <c r="L58" t="s">
-        <v>165</v>
+        <v>999</v>
       </c>
       <c r="M58" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="N58" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="O58" t="s">
-        <v>165</v>
+        <v>1072</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="Q58" t="s">
-        <v>165</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59">
@@ -7452,10 +7462,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C59" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -7463,15 +7473,8 @@
       <c r="E59" t="s">
         <v>360</v>
       </c>
-      <c r="F59" t="s">
-        <v>882</v>
-      </c>
-      <c r="G59" t="s">
-        <v>361</v>
-      </c>
-      <c r="H59" t="s">
-        <v>362</v>
-      </c>
+      <c r="G59"/>
+      <c r="H59"/>
       <c r="I59" t="s">
         <v>165</v>
       </c>
@@ -7502,40 +7505,53 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" t="s">
+        <v>755</v>
+      </c>
+      <c r="C60" t="s">
+        <v>833</v>
+      </c>
+      <c r="D60" t="s">
+        <v>362</v>
+      </c>
+      <c r="E60" t="s">
         <v>363</v>
       </c>
-      <c r="B60" t="s">
-        <v>770</v>
-      </c>
-      <c r="C60" t="s">
-        <v>830</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="F60" t="s">
+        <v>886</v>
+      </c>
+      <c r="G60" t="s">
         <v>364</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>365</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
       <c r="I60" t="s">
         <v>165</v>
       </c>
-      <c r="J60"/>
+      <c r="J60" t="s">
+        <v>165</v>
+      </c>
       <c r="K60" t="s">
         <v>165</v>
       </c>
       <c r="L60" t="s">
         <v>165</v>
       </c>
-      <c r="M60"/>
+      <c r="M60" t="s">
+        <v>165</v>
+      </c>
       <c r="N60" t="s">
         <v>165</v>
       </c>
       <c r="O60" t="s">
         <v>165</v>
       </c>
-      <c r="P60"/>
+      <c r="P60" t="s">
+        <v>165</v>
+      </c>
       <c r="Q60" t="s">
         <v>165</v>
       </c>
@@ -7545,111 +7561,105 @@
         <v>366</v>
       </c>
       <c r="B61" t="s">
-        <v>752</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61" t="s">
-        <v>883</v>
-      </c>
-      <c r="G61" t="s">
+        <v>774</v>
+      </c>
+      <c r="C61" t="s">
+        <v>834</v>
+      </c>
+      <c r="D61" t="s">
         <v>367</v>
       </c>
-      <c r="H61" t="s">
+      <c r="E61" t="s">
         <v>368</v>
       </c>
+      <c r="G61"/>
+      <c r="H61"/>
       <c r="I61" t="s">
-        <v>369</v>
-      </c>
-      <c r="J61" t="s">
-        <v>369</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="J61"/>
       <c r="K61" t="s">
-        <v>369</v>
+        <v>165</v>
       </c>
       <c r="L61" t="s">
-        <v>369</v>
-      </c>
-      <c r="M61" t="s">
-        <v>369</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M61"/>
       <c r="N61" t="s">
-        <v>369</v>
+        <v>165</v>
       </c>
       <c r="O61" t="s">
-        <v>369</v>
-      </c>
-      <c r="P61" t="s">
-        <v>369</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P61"/>
       <c r="Q61" t="s">
-        <v>369</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>755</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>887</v>
+      </c>
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="B62" t="s">
-        <v>756</v>
-      </c>
-      <c r="C62" t="s">
-        <v>831</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="H62" t="s">
         <v>371</v>
       </c>
-      <c r="E62" t="s">
+      <c r="I62" t="s">
         <v>372</v>
       </c>
-      <c r="F62" t="s">
-        <v>884</v>
-      </c>
-      <c r="G62" t="s">
-        <v>373</v>
-      </c>
-      <c r="H62" t="s">
-        <v>374</v>
-      </c>
-      <c r="I62" t="s">
-        <v>243</v>
-      </c>
       <c r="J62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="K62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="L62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="M62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="N62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="O62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="P62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="Q62" t="s">
-        <v>243</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B63" t="s">
+        <v>759</v>
+      </c>
+      <c r="C63" t="s">
+        <v>835</v>
+      </c>
+      <c r="D63" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="B63" t="s">
-        <v>752</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63"/>
       <c r="F63" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G63" t="s">
         <v>376</v>
@@ -7658,207 +7668,228 @@
         <v>377</v>
       </c>
       <c r="I63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="J63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="K63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="L63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="M63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="N63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="O63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="P63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="Q63" t="s">
-        <v>378</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s">
+        <v>755</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>889</v>
+      </c>
+      <c r="G64" t="s">
         <v>379</v>
       </c>
-      <c r="B64" t="s">
-        <v>771</v>
-      </c>
-      <c r="C64" t="s">
-        <v>832</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="H64" t="s">
         <v>380</v>
       </c>
-      <c r="E64" t="s">
+      <c r="I64" t="s">
         <v>381</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64" t="s">
-        <v>924</v>
-      </c>
       <c r="J64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K64" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s">
-        <v>996</v>
+        <v>381</v>
       </c>
       <c r="M64" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N64" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O64" t="s">
-        <v>1069</v>
+        <v>381</v>
       </c>
       <c r="P64" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q64" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="C65" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D65" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E65" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="J65" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="M65" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="N65" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="O65" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="P65" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q65" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C66" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D66" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E66" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="J66" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K66" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L66" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="M66" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N66" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O66" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="P66" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q66" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" t="s">
+        <v>759</v>
+      </c>
+      <c r="C67" t="s">
+        <v>838</v>
+      </c>
+      <c r="D67" t="s">
+        <v>401</v>
+      </c>
+      <c r="E67" t="s">
+        <v>402</v>
+      </c>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67" t="s">
+        <v>930</v>
+      </c>
+      <c r="J67" t="s">
+        <v>403</v>
+      </c>
+      <c r="K67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M67" t="s">
+        <v>405</v>
+      </c>
+      <c r="N67" t="s">
         <v>406</v>
       </c>
-      <c r="B67" t="s">
-        <v>752</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67" t="s">
-        <v>886</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="O67" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P67" t="s">
         <v>407</v>
       </c>
-      <c r="H67" t="s">
+      <c r="Q67" t="s">
         <v>408</v>
       </c>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="G68" t="s">
         <v>410</v>
@@ -7866,114 +7897,114 @@
       <c r="H68" t="s">
         <v>411</v>
       </c>
-      <c r="I68" t="s">
-        <v>243</v>
-      </c>
-      <c r="J68" t="s">
-        <v>243</v>
-      </c>
-      <c r="K68" t="s">
-        <v>243</v>
-      </c>
-      <c r="L68" t="s">
-        <v>243</v>
-      </c>
-      <c r="M68" t="s">
-        <v>243</v>
-      </c>
-      <c r="N68" t="s">
-        <v>243</v>
-      </c>
-      <c r="O68" t="s">
-        <v>243</v>
-      </c>
-      <c r="P68" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>243</v>
-      </c>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>772</v>
-      </c>
-      <c r="C69" t="s">
-        <v>835</v>
-      </c>
-      <c r="D69" t="s">
+        <v>755</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>891</v>
+      </c>
+      <c r="G69" t="s">
         <v>413</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>414</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
       <c r="I69" t="s">
-        <v>927</v>
+        <v>243</v>
       </c>
       <c r="J69" t="s">
-        <v>415</v>
+        <v>243</v>
       </c>
       <c r="K69" t="s">
-        <v>416</v>
+        <v>243</v>
       </c>
       <c r="L69" t="s">
-        <v>999</v>
+        <v>243</v>
       </c>
       <c r="M69" t="s">
-        <v>417</v>
+        <v>243</v>
       </c>
       <c r="N69" t="s">
-        <v>418</v>
+        <v>243</v>
       </c>
       <c r="O69" t="s">
-        <v>1072</v>
+        <v>243</v>
       </c>
       <c r="P69" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
       <c r="Q69" t="s">
-        <v>420</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="C70" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D70" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E70" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="I70" t="s">
+        <v>931</v>
+      </c>
+      <c r="J70" t="s">
+        <v>418</v>
+      </c>
+      <c r="K70" t="s">
+        <v>419</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M70" t="s">
+        <v>420</v>
+      </c>
+      <c r="N70" t="s">
+        <v>421</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1076</v>
+      </c>
+      <c r="P70" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C71" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7995,10 +8026,10 @@
         <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="C72" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -8020,10 +8051,10 @@
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C73" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D73" t="s">
         <v>431</v>
@@ -8045,24 +8076,21 @@
         <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C74" t="s">
-        <v>840</v>
-      </c>
-      <c r="D74"/>
+        <v>843</v>
+      </c>
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
       <c r="E74" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="I74" t="s">
-        <v>928</v>
-      </c>
       <c r="J74"/>
-      <c r="K74" t="s">
-        <v>435</v>
-      </c>
+      <c r="K74"/>
       <c r="M74"/>
       <c r="N74"/>
       <c r="P74"/>
@@ -8073,84 +8101,84 @@
         <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="C75" t="s">
-        <v>841</v>
-      </c>
-      <c r="D75" t="s">
+        <v>844</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="s">
         <v>437</v>
-      </c>
-      <c r="E75" t="s">
-        <v>438</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>929</v>
-      </c>
-      <c r="J75" t="s">
-        <v>439</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="J75"/>
       <c r="K75" t="s">
-        <v>440</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M75" t="s">
-        <v>441</v>
-      </c>
-      <c r="N75" t="s">
-        <v>442</v>
-      </c>
-      <c r="O75" t="s">
-        <v>1073</v>
-      </c>
-      <c r="P75" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>444</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s">
-        <v>752</v>
+        <v>777</v>
       </c>
       <c r="C76" t="s">
-        <v>842</v>
-      </c>
-      <c r="D76"/>
+        <v>845</v>
+      </c>
+      <c r="D76" t="s">
+        <v>440</v>
+      </c>
       <c r="E76" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>930</v>
-      </c>
-      <c r="J76"/>
+        <v>933</v>
+      </c>
+      <c r="J76" t="s">
+        <v>442</v>
+      </c>
       <c r="K76" t="s">
+        <v>443</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M76" t="s">
+        <v>444</v>
+      </c>
+      <c r="N76" t="s">
+        <v>445</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P76" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q76" t="s">
         <v>447</v>
       </c>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>448</v>
       </c>
       <c r="B77" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C77" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -8159,176 +8187,179 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
         <v>450</v>
       </c>
-      <c r="L77" t="s">
-        <v>1001</v>
-      </c>
       <c r="M77"/>
-      <c r="N77" t="s">
-        <v>451</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1074</v>
-      </c>
-      <c r="P77" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>453</v>
-      </c>
+      <c r="N77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B78" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="C78" t="s">
-        <v>844</v>
-      </c>
-      <c r="D78" t="s">
-        <v>455</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D78"/>
       <c r="E78" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L78" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="O78" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="P78" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q78" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>457</v>
+      </c>
+      <c r="B79" t="s">
+        <v>778</v>
+      </c>
+      <c r="C79" t="s">
+        <v>848</v>
+      </c>
+      <c r="D79" t="s">
+        <v>458</v>
+      </c>
+      <c r="E79" t="s">
         <v>459</v>
       </c>
-      <c r="B79" t="s">
-        <v>752</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79"/>
       <c r="G79"/>
       <c r="H79"/>
+      <c r="I79" t="s">
+        <v>936</v>
+      </c>
       <c r="J79"/>
-      <c r="K79"/>
+      <c r="K79" t="s">
+        <v>453</v>
+      </c>
       <c r="L79" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M79" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79" t="s">
         <v>460</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P79" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q79" t="s">
         <v>461</v>
       </c>
-      <c r="P79"/>
-      <c r="Q79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>761</v>
-      </c>
-      <c r="C80" t="s">
-        <v>807</v>
-      </c>
-      <c r="D80" t="s">
-        <v>167</v>
-      </c>
-      <c r="E80" t="s">
-        <v>168</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80"/>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="I80" t="s">
-        <v>933</v>
-      </c>
-      <c r="J80" t="s">
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M80" t="s">
         <v>463</v>
       </c>
-      <c r="K80" t="s">
+      <c r="N80" t="s">
         <v>464</v>
       </c>
-      <c r="L80" t="s">
-        <v>1004</v>
-      </c>
-      <c r="M80" t="s">
-        <v>465</v>
-      </c>
-      <c r="N80" t="s">
-        <v>466</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1076</v>
-      </c>
-      <c r="P80" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>468</v>
-      </c>
+      <c r="P80"/>
+      <c r="Q80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="C81" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="D81" t="s">
-        <v>470</v>
+        <v>167</v>
       </c>
       <c r="E81" t="s">
-        <v>471</v>
+        <v>168</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="I81" t="s">
+        <v>937</v>
+      </c>
+      <c r="J81" t="s">
+        <v>466</v>
+      </c>
+      <c r="K81" t="s">
+        <v>467</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M81" t="s">
+        <v>468</v>
+      </c>
+      <c r="N81" t="s">
+        <v>469</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P81" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C82" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -8350,10 +8381,10 @@
         <v>475</v>
       </c>
       <c r="B83" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C83" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D83" t="s">
         <v>476</v>
@@ -8365,188 +8396,188 @@
       <c r="H83"/>
       <c r="J83"/>
       <c r="K83"/>
-      <c r="L83" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M83" t="s">
-        <v>478</v>
-      </c>
-      <c r="N83" t="s">
-        <v>479</v>
-      </c>
+      <c r="M83"/>
+      <c r="N83"/>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" t="s">
+        <v>761</v>
+      </c>
+      <c r="C84" t="s">
+        <v>851</v>
+      </c>
+      <c r="D84" t="s">
+        <v>479</v>
+      </c>
+      <c r="E84" t="s">
         <v>480</v>
-      </c>
-      <c r="B84" t="s">
-        <v>758</v>
-      </c>
-      <c r="C84" t="s">
-        <v>848</v>
-      </c>
-      <c r="D84" t="s">
-        <v>481</v>
-      </c>
-      <c r="E84" t="s">
-        <v>482</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="M84" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N84" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P84"/>
       <c r="Q84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>483</v>
+      </c>
+      <c r="B85" t="s">
+        <v>761</v>
+      </c>
+      <c r="C85" t="s">
+        <v>852</v>
+      </c>
+      <c r="D85" t="s">
+        <v>484</v>
+      </c>
+      <c r="E85" t="s">
         <v>485</v>
-      </c>
-      <c r="B85" t="s">
-        <v>752</v>
-      </c>
-      <c r="C85" t="s">
-        <v>849</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" t="s">
-        <v>486</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
       <c r="J85"/>
       <c r="K85"/>
-      <c r="M85"/>
-      <c r="N85"/>
+      <c r="L85" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M85" t="s">
+        <v>486</v>
+      </c>
+      <c r="N85" t="s">
+        <v>487</v>
+      </c>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C86" t="s">
-        <v>850</v>
-      </c>
-      <c r="D86" t="s">
-        <v>488</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="D86"/>
       <c r="E86" t="s">
         <v>489</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
-      <c r="I86" t="s">
-        <v>934</v>
-      </c>
       <c r="J86"/>
-      <c r="K86" t="s">
-        <v>490</v>
-      </c>
-      <c r="L86" t="s">
-        <v>989</v>
-      </c>
+      <c r="K86"/>
       <c r="M86"/>
-      <c r="N86" t="s">
-        <v>293</v>
-      </c>
+      <c r="N86"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87" t="s">
+        <v>755</v>
+      </c>
+      <c r="C87" t="s">
+        <v>854</v>
+      </c>
+      <c r="D87" t="s">
         <v>491</v>
       </c>
-      <c r="B87" t="s">
-        <v>752</v>
-      </c>
-      <c r="C87" t="s">
-        <v>851</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>492</v>
-      </c>
-      <c r="E87" t="s">
-        <v>493</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="s">
-        <v>935</v>
-      </c>
-      <c r="J87" t="s">
-        <v>494</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="J87"/>
       <c r="K87" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L87" t="s">
-        <v>1007</v>
-      </c>
-      <c r="M87" t="s">
-        <v>496</v>
-      </c>
+        <v>993</v>
+      </c>
+      <c r="M87"/>
       <c r="N87" t="s">
-        <v>497</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1077</v>
-      </c>
-      <c r="P87" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>499</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B88" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C88" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D88" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E88" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
+      <c r="I88" t="s">
+        <v>939</v>
+      </c>
+      <c r="J88" t="s">
+        <v>497</v>
+      </c>
+      <c r="K88" t="s">
+        <v>498</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M88" t="s">
+        <v>499</v>
+      </c>
+      <c r="N88" t="s">
+        <v>500</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P88" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C89" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D89" t="s">
         <v>504</v>
@@ -8558,101 +8589,80 @@
       <c r="H89"/>
       <c r="J89"/>
       <c r="K89"/>
-      <c r="L89" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M89" t="s">
-        <v>506</v>
-      </c>
-      <c r="N89" t="s">
-        <v>507</v>
-      </c>
-      <c r="O89" t="s">
-        <v>1078</v>
-      </c>
-      <c r="P89" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>509</v>
-      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s">
-        <v>752</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90"/>
+        <v>769</v>
+      </c>
+      <c r="C90" t="s">
+        <v>857</v>
+      </c>
+      <c r="D90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E90" t="s">
+        <v>508</v>
+      </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="M90" t="s">
+        <v>509</v>
+      </c>
+      <c r="N90" t="s">
+        <v>510</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1082</v>
+      </c>
+      <c r="P90" t="s">
         <v>511</v>
       </c>
-      <c r="N90" t="s">
-        <v>286</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1079</v>
-      </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>512</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
-      <c r="F91" t="s">
-        <v>888</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M91" t="s">
+        <v>514</v>
+      </c>
+      <c r="N91" t="s">
+        <v>286</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P91" t="s">
         <v>515</v>
       </c>
-      <c r="H91" t="s">
+      <c r="Q91" t="s">
         <v>516</v>
-      </c>
-      <c r="I91" t="s">
-        <v>243</v>
-      </c>
-      <c r="J91" t="s">
-        <v>243</v>
-      </c>
-      <c r="K91" t="s">
-        <v>243</v>
-      </c>
-      <c r="L91" t="s">
-        <v>243</v>
-      </c>
-      <c r="M91" t="s">
-        <v>243</v>
-      </c>
-      <c r="N91" t="s">
-        <v>243</v>
-      </c>
-      <c r="O91" t="s">
-        <v>243</v>
-      </c>
-      <c r="P91" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="92">
@@ -8660,57 +8670,71 @@
         <v>517</v>
       </c>
       <c r="B92" t="s">
-        <v>752</v>
-      </c>
-      <c r="C92" t="s">
-        <v>854</v>
-      </c>
-      <c r="D92" t="s">
+        <v>755</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>892</v>
+      </c>
+      <c r="G92" t="s">
         <v>518</v>
       </c>
-      <c r="E92" t="s">
+      <c r="H92" t="s">
         <v>519</v>
       </c>
-      <c r="F92" t="s">
-        <v>889</v>
-      </c>
-      <c r="G92" t="s">
-        <v>520</v>
-      </c>
-      <c r="H92" t="s">
-        <v>521</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
+      <c r="I92" t="s">
+        <v>243</v>
+      </c>
+      <c r="J92" t="s">
+        <v>243</v>
+      </c>
+      <c r="K92" t="s">
+        <v>243</v>
+      </c>
+      <c r="L92" t="s">
+        <v>243</v>
+      </c>
+      <c r="M92" t="s">
+        <v>243</v>
+      </c>
+      <c r="N92" t="s">
+        <v>243</v>
+      </c>
+      <c r="O92" t="s">
+        <v>243</v>
+      </c>
+      <c r="P92" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>520</v>
+      </c>
+      <c r="B93" t="s">
+        <v>755</v>
+      </c>
+      <c r="C93" t="s">
+        <v>858</v>
+      </c>
+      <c r="D93" t="s">
+        <v>521</v>
+      </c>
+      <c r="E93" t="s">
         <v>522</v>
       </c>
-      <c r="B93" t="s">
-        <v>752</v>
-      </c>
-      <c r="C93" t="s">
-        <v>854</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
+        <v>893</v>
+      </c>
+      <c r="G93" t="s">
         <v>523</v>
       </c>
-      <c r="E93" t="s">
-        <v>519</v>
-      </c>
-      <c r="F93" t="s">
-        <v>890</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>524</v>
-      </c>
-      <c r="H93" t="s">
-        <v>525</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -8721,28 +8745,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>525</v>
+      </c>
+      <c r="B94" t="s">
+        <v>755</v>
+      </c>
+      <c r="C94" t="s">
+        <v>858</v>
+      </c>
+      <c r="D94" t="s">
         <v>526</v>
       </c>
-      <c r="B94" t="s">
-        <v>752</v>
-      </c>
-      <c r="C94" t="s">
-        <v>855</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
+        <v>522</v>
+      </c>
+      <c r="F94" t="s">
+        <v>894</v>
+      </c>
+      <c r="G94" t="s">
         <v>527</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>528</v>
-      </c>
-      <c r="F94" t="s">
-        <v>891</v>
-      </c>
-      <c r="G94" t="s">
-        <v>529</v>
-      </c>
-      <c r="H94" t="s">
-        <v>530</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
@@ -8753,97 +8777,97 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>529</v>
+      </c>
+      <c r="B95" t="s">
+        <v>755</v>
+      </c>
+      <c r="C95" t="s">
+        <v>859</v>
+      </c>
+      <c r="D95" t="s">
+        <v>530</v>
+      </c>
+      <c r="E95" t="s">
         <v>531</v>
       </c>
-      <c r="B95" t="s">
-        <v>775</v>
-      </c>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95" t="s">
-        <v>936</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="F95" t="s">
+        <v>895</v>
+      </c>
+      <c r="G95" t="s">
         <v>532</v>
       </c>
-      <c r="K95" t="s">
+      <c r="H95" t="s">
         <v>533</v>
       </c>
-      <c r="L95" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M95" t="s">
-        <v>534</v>
-      </c>
-      <c r="N95" t="s">
-        <v>535</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1080</v>
-      </c>
-      <c r="P95" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>537</v>
-      </c>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="J96" t="s">
+        <v>535</v>
+      </c>
+      <c r="K96" t="s">
+        <v>536</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M96" t="s">
+        <v>537</v>
+      </c>
+      <c r="N96" t="s">
+        <v>538</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1084</v>
+      </c>
+      <c r="P96" t="s">
         <v>539</v>
       </c>
-      <c r="K96" t="s">
+      <c r="Q96" t="s">
         <v>540</v>
       </c>
-      <c r="L96" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M96" t="s">
-        <v>541</v>
-      </c>
-      <c r="N96" t="s">
-        <v>542</v>
-      </c>
-      <c r="P96"/>
-      <c r="Q96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B97" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="J97" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K97" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L97" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="M97" t="s">
         <v>544</v>
@@ -8859,23 +8883,30 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>752</v>
-      </c>
-      <c r="C98" t="s">
-        <v>856</v>
-      </c>
-      <c r="D98" t="s">
-        <v>547</v>
-      </c>
-      <c r="E98" t="s">
-        <v>548</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="M98"/>
-      <c r="N98"/>
+      <c r="I98" t="s">
+        <v>941</v>
+      </c>
+      <c r="J98" t="s">
+        <v>542</v>
+      </c>
+      <c r="K98" t="s">
+        <v>543</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M98" t="s">
+        <v>547</v>
+      </c>
+      <c r="N98" t="s">
+        <v>548</v>
+      </c>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
@@ -8884,10 +8915,10 @@
         <v>549</v>
       </c>
       <c r="B99" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C99" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D99" t="s">
         <v>550</v>
@@ -8909,10 +8940,10 @@
         <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C100" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D100" t="s">
         <v>553</v>
@@ -8920,15 +8951,8 @@
       <c r="E100" t="s">
         <v>554</v>
       </c>
-      <c r="F100" t="s">
-        <v>892</v>
-      </c>
-      <c r="G100" t="s">
-        <v>555</v>
-      </c>
-      <c r="H100" t="s">
-        <v>556</v>
-      </c>
+      <c r="G100"/>
+      <c r="H100"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="M100"/>
@@ -8938,84 +8962,91 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B101" t="s">
         <v>755</v>
       </c>
       <c r="C101" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D101" t="s">
+        <v>556</v>
+      </c>
+      <c r="E101" t="s">
+        <v>557</v>
+      </c>
+      <c r="F101" t="s">
+        <v>896</v>
+      </c>
+      <c r="G101" t="s">
         <v>558</v>
       </c>
-      <c r="E101" t="s">
+      <c r="H101" t="s">
         <v>559</v>
       </c>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101" t="s">
-        <v>938</v>
-      </c>
-      <c r="J101" t="s">
-        <v>560</v>
-      </c>
-      <c r="K101" t="s">
-        <v>561</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M101" t="s">
-        <v>562</v>
-      </c>
-      <c r="N101" t="s">
-        <v>563</v>
-      </c>
-      <c r="O101" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P101" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>565</v>
-      </c>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B102" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C102" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D102" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E102" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="P102"/>
-      <c r="Q102"/>
+      <c r="I102" t="s">
+        <v>942</v>
+      </c>
+      <c r="J102" t="s">
+        <v>563</v>
+      </c>
+      <c r="K102" t="s">
+        <v>564</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M102" t="s">
+        <v>565</v>
+      </c>
+      <c r="N102" t="s">
+        <v>566</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P102" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="C103" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D103" t="s">
         <v>570</v>
@@ -9037,10 +9068,10 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C104" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -9062,10 +9093,17 @@
         <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>779</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
+        <v>782</v>
+      </c>
+      <c r="C105" t="s">
+        <v>866</v>
+      </c>
+      <c r="D105" t="s">
+        <v>576</v>
+      </c>
+      <c r="E105" t="s">
+        <v>577</v>
+      </c>
       <c r="G105"/>
       <c r="H105"/>
       <c r="J105"/>
@@ -9077,10 +9115,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B106" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
@@ -9088,15 +9126,8 @@
       <c r="H106"/>
       <c r="J106"/>
       <c r="K106"/>
-      <c r="L106" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M106" t="s">
-        <v>577</v>
-      </c>
-      <c r="N106" t="s">
-        <v>578</v>
-      </c>
+      <c r="M106"/>
+      <c r="N106"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
@@ -9105,973 +9136,998 @@
         <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>780</v>
-      </c>
-      <c r="C107" t="s">
-        <v>863</v>
-      </c>
-      <c r="D107" t="s">
-        <v>580</v>
-      </c>
-      <c r="E107" t="s">
-        <v>581</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107"/>
       <c r="G107"/>
       <c r="H107"/>
-      <c r="I107" t="s">
-        <v>939</v>
-      </c>
-      <c r="J107" t="s">
-        <v>582</v>
-      </c>
-      <c r="K107" t="s">
-        <v>583</v>
-      </c>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="M107" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N107" t="s">
-        <v>585</v>
-      </c>
-      <c r="O107" t="s">
-        <v>1082</v>
-      </c>
-      <c r="P107" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>587</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="P107"/>
+      <c r="Q107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B108" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C108" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="D108" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E108" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="J108" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="K108" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="L108" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="M108" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="N108" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="O108" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="P108" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q108" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B109" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="C109" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D109" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E109" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="J109" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K109" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L109" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="M109" t="s">
-        <v>511</v>
+        <v>596</v>
       </c>
       <c r="N109" t="s">
-        <v>286</v>
+        <v>597</v>
       </c>
       <c r="O109" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="P109" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q109" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B110" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="C110" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D110" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E110" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="J110" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K110" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L110" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="M110" t="s">
-        <v>609</v>
+        <v>514</v>
       </c>
       <c r="N110" t="s">
-        <v>610</v>
+        <v>286</v>
       </c>
       <c r="O110" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="P110" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q110" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B111" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C111" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D111" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E111" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="J111" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="K111" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L111" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="M111" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="N111" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="O111" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="P111" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="Q111" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B112" t="s">
-        <v>783</v>
-      </c>
-      <c r="D112"/>
-      <c r="E112"/>
+        <v>786</v>
+      </c>
+      <c r="C112" t="s">
+        <v>871</v>
+      </c>
+      <c r="D112" t="s">
+        <v>617</v>
+      </c>
+      <c r="E112" t="s">
+        <v>618</v>
+      </c>
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="J112" t="s">
+        <v>619</v>
+      </c>
+      <c r="K112" t="s">
+        <v>620</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M112" t="s">
+        <v>621</v>
+      </c>
+      <c r="N112" t="s">
+        <v>622</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P112" t="s">
         <v>623</v>
       </c>
-      <c r="K112" t="s">
+      <c r="Q112" t="s">
         <v>624</v>
-      </c>
-      <c r="L112" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M112" t="s">
-        <v>625</v>
-      </c>
-      <c r="N112" t="s">
-        <v>626</v>
-      </c>
-      <c r="O112" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P112" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B113" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D113"/>
       <c r="E113"/>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="J113" t="s">
+        <v>626</v>
+      </c>
+      <c r="K113" t="s">
+        <v>627</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M113" t="s">
+        <v>628</v>
+      </c>
+      <c r="N113" t="s">
+        <v>629</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P113" t="s">
         <v>630</v>
       </c>
-      <c r="K113" t="s">
+      <c r="Q113" t="s">
         <v>631</v>
-      </c>
-      <c r="L113" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M113" t="s">
-        <v>632</v>
-      </c>
-      <c r="N113" t="s">
-        <v>633</v>
-      </c>
-      <c r="O113" t="s">
-        <v>1088</v>
-      </c>
-      <c r="P113" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B114" t="s">
-        <v>784</v>
-      </c>
-      <c r="C114" t="s">
-        <v>868</v>
-      </c>
-      <c r="D114" t="s">
-        <v>637</v>
-      </c>
-      <c r="E114" t="s">
-        <v>638</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="J114" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="K114" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L114" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="M114" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="N114" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="O114" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="P114" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="Q114" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="C115" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D115" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E115" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="J115" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K115" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L115" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="M115" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="N115" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="O115" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="P115" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="Q115" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B116" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C116" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D116" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E116" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="J116" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="K116" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="L116" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="M116" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N116" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="O116" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="P116" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="Q116" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B117" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C117" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="D117" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E117" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="J117" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K117" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="L117" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="M117" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="N117" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="O117" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="P117" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="Q117" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B118" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="C118" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="D118" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E118" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="J118" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K118" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="L118" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="M118" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="N118" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="O118" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="P118" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="Q118" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B119" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C119" t="s">
-        <v>680</v>
+        <v>876</v>
       </c>
       <c r="D119" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E119" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="P119"/>
-      <c r="Q119"/>
+      <c r="I119" t="s">
+        <v>954</v>
+      </c>
+      <c r="J119" t="s">
+        <v>676</v>
+      </c>
+      <c r="K119" t="s">
+        <v>677</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M119" t="s">
+        <v>678</v>
+      </c>
+      <c r="N119" t="s">
+        <v>679</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1096</v>
+      </c>
+      <c r="P119" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B120" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C120" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D120" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E120" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G120"/>
       <c r="H120"/>
-      <c r="I120" t="s">
-        <v>951</v>
-      </c>
-      <c r="J120" t="s">
-        <v>682</v>
-      </c>
-      <c r="K120" t="s">
-        <v>683</v>
-      </c>
-      <c r="L120" t="s">
-        <v>1027</v>
-      </c>
-      <c r="M120" t="s">
-        <v>684</v>
-      </c>
-      <c r="N120" t="s">
-        <v>685</v>
-      </c>
-      <c r="O120" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P120" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>687</v>
-      </c>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B121" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C121" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D121" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E121" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="J121" t="s">
+        <v>685</v>
+      </c>
+      <c r="K121" t="s">
+        <v>686</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M121" t="s">
+        <v>687</v>
+      </c>
+      <c r="N121" t="s">
+        <v>688</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P121" t="s">
         <v>689</v>
       </c>
-      <c r="K121" t="s">
+      <c r="Q121" t="s">
         <v>690</v>
-      </c>
-      <c r="L121" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M121" t="s">
-        <v>691</v>
-      </c>
-      <c r="N121" t="s">
-        <v>692</v>
-      </c>
-      <c r="O121" t="s">
-        <v>1094</v>
-      </c>
-      <c r="P121" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B122" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="C122" t="s">
-        <v>873</v>
+        <v>683</v>
       </c>
       <c r="D122" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E122" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
-      <c r="J122"/>
-      <c r="K122"/>
+      <c r="I122" t="s">
+        <v>956</v>
+      </c>
+      <c r="J122" t="s">
+        <v>692</v>
+      </c>
+      <c r="K122" t="s">
+        <v>693</v>
+      </c>
       <c r="L122" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="M122" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="N122" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="O122" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="P122" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="Q122" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B123" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C123" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D123" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E123" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="M123" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="N123" t="s">
-        <v>706</v>
-      </c>
-      <c r="P123"/>
-      <c r="Q123"/>
+        <v>702</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P123" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>705</v>
+      </c>
+      <c r="B124" t="s">
+        <v>757</v>
+      </c>
+      <c r="C124" t="s">
+        <v>878</v>
+      </c>
+      <c r="D124" t="s">
+        <v>706</v>
+      </c>
+      <c r="E124" t="s">
         <v>707</v>
-      </c>
-      <c r="B124" t="s">
-        <v>787</v>
-      </c>
-      <c r="C124" t="s">
-        <v>875</v>
-      </c>
-      <c r="D124" t="s">
-        <v>708</v>
-      </c>
-      <c r="E124" t="s">
-        <v>709</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
-      <c r="I124" t="s">
-        <v>953</v>
-      </c>
-      <c r="J124" t="s">
-        <v>710</v>
-      </c>
-      <c r="K124" t="s">
-        <v>711</v>
-      </c>
+      <c r="J124"/>
+      <c r="K124"/>
       <c r="L124" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="M124" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="N124" t="s">
-        <v>713</v>
-      </c>
-      <c r="O124" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P124" t="s">
-        <v>714</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>715</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="P124"/>
+      <c r="Q124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B125" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
       <c r="C125" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D125" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E125" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="J125" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="K125" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="L125" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="M125" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N125" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="O125" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="P125" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="Q125" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B126" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="C126" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D126" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E126" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="J126" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K126" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="L126" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="M126" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="N126" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O126" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="P126" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="Q126" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B127" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C127" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D127" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E127" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="J127" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="K127" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L127" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="M127" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="N127" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O127" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="P127" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="Q127" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B128" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C128" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D128" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E128" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="M128"/>
-      <c r="N128"/>
-      <c r="P128"/>
-      <c r="Q128"/>
+      <c r="I128" t="s">
+        <v>960</v>
+      </c>
+      <c r="J128" t="s">
+        <v>740</v>
+      </c>
+      <c r="K128" t="s">
+        <v>741</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M128" t="s">
+        <v>742</v>
+      </c>
+      <c r="N128" t="s">
+        <v>743</v>
+      </c>
+      <c r="O128" t="s">
+        <v>1103</v>
+      </c>
+      <c r="P128" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
         <v>746</v>
       </c>
       <c r="B129" t="s">
-        <v>761</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129"/>
+        <v>794</v>
+      </c>
+      <c r="C129" t="s">
+        <v>883</v>
+      </c>
+      <c r="D129" t="s">
+        <v>747</v>
+      </c>
+      <c r="E129" t="s">
+        <v>748</v>
+      </c>
       <c r="G129"/>
       <c r="H129"/>
-      <c r="I129" t="s">
-        <v>957</v>
-      </c>
-      <c r="J129" t="s">
-        <v>747</v>
-      </c>
-      <c r="K129" t="s">
-        <v>748</v>
-      </c>
-      <c r="L129" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M129" t="s">
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
         <v>749</v>
       </c>
-      <c r="N129" t="s">
-        <v>457</v>
-      </c>
-      <c r="O129" t="s">
-        <v>1100</v>
-      </c>
-      <c r="P129" t="s">
+      <c r="B130" t="s">
+        <v>764</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130" t="s">
+        <v>961</v>
+      </c>
+      <c r="J130" t="s">
         <v>750</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="K130" t="s">
         <v>751</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M130" t="s">
+        <v>752</v>
+      </c>
+      <c r="N130" t="s">
+        <v>460</v>
+      </c>
+      <c r="O130" t="s">
+        <v>1104</v>
+      </c>
+      <c r="P130" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/new original/_Lang_Chinese/Lang/CN/Game/CharaText.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1107">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2538,7 +2538,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -2998,7 +2998,7 @@
   <si>
     <t xml:space="preserve">「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
- *レロレロレロ*
+*レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -3422,100 +3422,103 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.61 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.194</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.61 fix 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.194</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.177</t>
@@ -3719,6 +3722,12 @@
 「啊，请为这只迷路的幼猫指明前程…」
 「祈祷吧。无论何时都会获得拯救」
 「不可憎恨他人」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「葛…」
+「哥…」
+「滋」
+「呲」</t>
   </si>
   <si>
     <t xml:space="preserve">「#onii」
@@ -5195,7 +5204,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -5204,7 +5213,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5213,7 +5222,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5230,7 +5239,7 @@
         <v>756</v>
       </c>
       <c r="C4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5241,7 +5250,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -5250,7 +5259,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -5269,7 +5278,7 @@
         <v>757</v>
       </c>
       <c r="C5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -5294,7 +5303,7 @@
         <v>758</v>
       </c>
       <c r="C6" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -5307,7 +5316,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -5316,7 +5325,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -5333,7 +5342,7 @@
         <v>755</v>
       </c>
       <c r="C7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5344,7 +5353,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5353,7 +5362,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5372,7 +5381,7 @@
         <v>755</v>
       </c>
       <c r="C8" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5383,7 +5392,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5392,7 +5401,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5401,7 +5410,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5418,7 +5427,7 @@
         <v>755</v>
       </c>
       <c r="C9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5429,7 +5438,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5438,7 +5447,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5447,7 +5456,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5464,7 +5473,7 @@
         <v>755</v>
       </c>
       <c r="C10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5475,21 +5484,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -5504,7 +5513,7 @@
         <v>759</v>
       </c>
       <c r="C11" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5515,7 +5524,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -5524,7 +5533,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -5533,7 +5542,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5550,7 +5559,7 @@
         <v>760</v>
       </c>
       <c r="C12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5561,7 +5570,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5570,7 +5579,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5579,7 +5588,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5596,7 +5605,7 @@
         <v>757</v>
       </c>
       <c r="C13" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5614,7 +5623,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5633,7 +5642,7 @@
         <v>758</v>
       </c>
       <c r="C14" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5644,7 +5653,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -5653,7 +5662,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -5662,7 +5671,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5679,7 +5688,7 @@
         <v>761</v>
       </c>
       <c r="C15" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5722,7 +5731,7 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5731,7 +5740,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5740,7 +5749,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5757,7 +5766,7 @@
         <v>763</v>
       </c>
       <c r="C17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -5768,7 +5777,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -5777,7 +5786,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -5786,7 +5795,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -5807,7 +5816,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5816,7 +5825,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5825,7 +5834,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5846,7 +5855,7 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5855,7 +5864,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5864,7 +5873,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5881,7 +5890,7 @@
         <v>755</v>
       </c>
       <c r="C20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5892,7 +5901,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5901,7 +5910,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5910,7 +5919,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -5931,7 +5940,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5940,7 +5949,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5949,7 +5958,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5970,7 +5979,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5979,7 +5988,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5988,7 +5997,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -6005,7 +6014,7 @@
         <v>759</v>
       </c>
       <c r="C23" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -6030,7 +6039,7 @@
         <v>755</v>
       </c>
       <c r="C24" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -6041,7 +6050,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -6050,7 +6059,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -6059,7 +6068,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -6080,7 +6089,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -6108,7 +6117,7 @@
         <v>764</v>
       </c>
       <c r="C26" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -6119,7 +6128,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -6140,7 +6149,7 @@
         <v>765</v>
       </c>
       <c r="C27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -6149,7 +6158,7 @@
         <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G27" t="s">
         <v>170</v>
@@ -6172,7 +6181,7 @@
         <v>755</v>
       </c>
       <c r="C28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -6185,7 +6194,7 @@
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M28" t="s">
         <v>175</v>
@@ -6194,7 +6203,7 @@
         <v>176</v>
       </c>
       <c r="O28" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="P28" t="s">
         <v>177</v>
@@ -6215,7 +6224,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="J29" t="s">
         <v>180</v>
@@ -6224,7 +6233,7 @@
         <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M29" t="s">
         <v>182</v>
@@ -6233,7 +6242,7 @@
         <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="P29" t="s">
         <v>184</v>
@@ -6250,7 +6259,7 @@
         <v>766</v>
       </c>
       <c r="C30" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D30" t="s">
         <v>187</v>
@@ -6261,7 +6270,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J30" t="s">
         <v>189</v>
@@ -6270,7 +6279,7 @@
         <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="M30" t="s">
         <v>191</v>
@@ -6279,7 +6288,7 @@
         <v>192</v>
       </c>
       <c r="O30" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="P30" t="s">
         <v>193</v>
@@ -6296,7 +6305,7 @@
         <v>767</v>
       </c>
       <c r="C31" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6307,7 +6316,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J31" t="s">
         <v>189</v>
@@ -6316,7 +6325,7 @@
         <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="M31" t="s">
         <v>191</v>
@@ -6325,7 +6334,7 @@
         <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="P31" t="s">
         <v>193</v>
@@ -6342,7 +6351,7 @@
         <v>767</v>
       </c>
       <c r="C32" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6353,7 +6362,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J32" t="s">
         <v>189</v>
@@ -6362,7 +6371,7 @@
         <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="M32" t="s">
         <v>191</v>
@@ -6371,7 +6380,7 @@
         <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="P32" t="s">
         <v>193</v>
@@ -6388,7 +6397,7 @@
         <v>767</v>
       </c>
       <c r="C33" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D33" t="s">
         <v>202</v>
@@ -6399,7 +6408,7 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="J33" t="s">
         <v>204</v>
@@ -6408,7 +6417,7 @@
         <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="M33" t="s">
         <v>206</v>
@@ -6417,7 +6426,7 @@
         <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="P33" t="s">
         <v>208</v>
@@ -6434,7 +6443,7 @@
         <v>755</v>
       </c>
       <c r="C34" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6445,7 +6454,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -6454,7 +6463,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -6463,7 +6472,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -6486,7 +6495,7 @@
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M35" t="s">
         <v>220</v>
@@ -6495,7 +6504,7 @@
         <v>221</v>
       </c>
       <c r="O35" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="P35" t="s">
         <v>222</v>
@@ -6516,7 +6525,7 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -6525,7 +6534,7 @@
         <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M36" t="s">
         <v>227</v>
@@ -6534,7 +6543,7 @@
         <v>228</v>
       </c>
       <c r="O36" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="P36" t="s">
         <v>229</v>
@@ -6553,7 +6562,7 @@
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G37" t="s">
         <v>232</v>
@@ -6562,7 +6571,7 @@
         <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="J37" t="s">
         <v>234</v>
@@ -6571,7 +6580,7 @@
         <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="M37" t="s">
         <v>236</v>
@@ -6580,7 +6589,7 @@
         <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="P37" t="s">
         <v>238</v>
@@ -6597,7 +6606,7 @@
         <v>768</v>
       </c>
       <c r="C38" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D38" t="s">
         <v>241</v>
@@ -6650,7 +6659,7 @@
         <v>769</v>
       </c>
       <c r="C39" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D39" t="s">
         <v>245</v>
@@ -6659,7 +6668,7 @@
         <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="G39" t="s">
         <v>247</v>
@@ -6668,7 +6677,7 @@
         <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="J39" t="s">
         <v>234</v>
@@ -6677,7 +6686,7 @@
         <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="M39" t="s">
         <v>236</v>
@@ -6686,7 +6695,7 @@
         <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="P39" t="s">
         <v>238</v>
@@ -6703,7 +6712,7 @@
         <v>755</v>
       </c>
       <c r="C40" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D40" t="s">
         <v>250</v>
@@ -6746,7 +6755,7 @@
         <v>759</v>
       </c>
       <c r="C42" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -6757,7 +6766,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="J42" t="s">
         <v>256</v>
@@ -6766,7 +6775,7 @@
         <v>257</v>
       </c>
       <c r="L42" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="M42" t="s">
         <v>258</v>
@@ -6775,7 +6784,7 @@
         <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="P42" t="s">
         <v>260</v>
@@ -6792,7 +6801,7 @@
         <v>755</v>
       </c>
       <c r="C43" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D43" t="s">
         <v>263</v>
@@ -6803,7 +6812,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="J43" t="s">
         <v>265</v>
@@ -6812,7 +6821,7 @@
         <v>266</v>
       </c>
       <c r="L43" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M43" t="s">
         <v>267</v>
@@ -6821,7 +6830,7 @@
         <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="P43" t="s">
         <v>269</v>
@@ -6842,7 +6851,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="J44" t="s">
         <v>272</v>
@@ -6851,7 +6860,7 @@
         <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M44" t="s">
         <v>274</v>
@@ -6860,7 +6869,7 @@
         <v>275</v>
       </c>
       <c r="O44" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="P44"/>
       <c r="Q44" t="s">
@@ -6879,7 +6888,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J45" t="s">
         <v>278</v>
@@ -6888,7 +6897,7 @@
         <v>279</v>
       </c>
       <c r="L45" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6897,7 +6906,7 @@
         <v>281</v>
       </c>
       <c r="O45" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="P45" t="s">
         <v>282</v>
@@ -6920,7 +6929,7 @@
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="M46" t="s">
         <v>285</v>
@@ -6929,7 +6938,7 @@
         <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="P46" t="s">
         <v>287</v>
@@ -6959,7 +6968,7 @@
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M47" t="s">
         <v>292</v>
@@ -6968,7 +6977,7 @@
         <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="P47" t="s">
         <v>294</v>
@@ -6984,6 +6993,9 @@
       <c r="B48" t="s">
         <v>771</v>
       </c>
+      <c r="C48" t="s">
+        <v>825</v>
+      </c>
       <c r="D48" t="s">
         <v>297</v>
       </c>
@@ -6992,17 +7004,26 @@
       </c>
       <c r="G48"/>
       <c r="H48"/>
+      <c r="I48" t="s">
+        <v>825</v>
+      </c>
       <c r="J48" t="s">
         <v>297</v>
       </c>
       <c r="K48" t="s">
         <v>298</v>
       </c>
+      <c r="L48" t="s">
+        <v>825</v>
+      </c>
       <c r="M48" t="s">
         <v>297</v>
       </c>
       <c r="N48" t="s">
         <v>298</v>
+      </c>
+      <c r="O48" t="s">
+        <v>825</v>
       </c>
       <c r="P48" t="s">
         <v>297</v>
@@ -7019,7 +7040,7 @@
         <v>759</v>
       </c>
       <c r="C49" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D49" t="s">
         <v>300</v>
@@ -7030,7 +7051,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="J49" t="s">
         <v>302</v>
@@ -7039,7 +7060,7 @@
         <v>303</v>
       </c>
       <c r="L49" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="M49" t="s">
         <v>304</v>
@@ -7048,7 +7069,7 @@
         <v>305</v>
       </c>
       <c r="O49" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="P49" t="s">
         <v>294</v>
@@ -7065,7 +7086,7 @@
         <v>755</v>
       </c>
       <c r="C50" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D50" t="s">
         <v>307</v>
@@ -7076,7 +7097,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="J50" t="s">
         <v>309</v>
@@ -7085,7 +7106,7 @@
         <v>310</v>
       </c>
       <c r="L50" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="M50" t="s">
         <v>311</v>
@@ -7094,7 +7115,7 @@
         <v>312</v>
       </c>
       <c r="O50" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="P50" t="s">
         <v>313</v>
@@ -7111,7 +7132,7 @@
         <v>759</v>
       </c>
       <c r="C51" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D51" t="s">
         <v>316</v>
@@ -7122,7 +7143,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="J51" t="s">
         <v>318</v>
@@ -7131,7 +7152,7 @@
         <v>319</v>
       </c>
       <c r="L51" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="M51" t="s">
         <v>320</v>
@@ -7140,7 +7161,7 @@
         <v>321</v>
       </c>
       <c r="O51" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="P51" t="s">
         <v>320</v>
@@ -7161,7 +7182,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J52" t="s">
         <v>323</v>
@@ -7170,7 +7191,7 @@
         <v>324</v>
       </c>
       <c r="L52" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="M52" t="s">
         <v>325</v>
@@ -7179,7 +7200,7 @@
         <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="P52" t="s">
         <v>327</v>
@@ -7196,7 +7217,7 @@
         <v>772</v>
       </c>
       <c r="C53" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D53" t="s">
         <v>330</v>
@@ -7242,7 +7263,7 @@
         <v>773</v>
       </c>
       <c r="C54" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7288,7 +7309,7 @@
         <v>772</v>
       </c>
       <c r="C55" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7334,7 +7355,7 @@
         <v>772</v>
       </c>
       <c r="C56" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D56" t="s">
         <v>340</v>
@@ -7380,7 +7401,7 @@
         <v>757</v>
       </c>
       <c r="C57" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D57" t="s">
         <v>343</v>
@@ -7391,7 +7412,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="J57" t="s">
         <v>345</v>
@@ -7400,7 +7421,7 @@
         <v>346</v>
       </c>
       <c r="L57" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="M57" t="s">
         <v>347</v>
@@ -7409,7 +7430,7 @@
         <v>348</v>
       </c>
       <c r="O57" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="P57" t="s">
         <v>349</v>
@@ -7430,7 +7451,7 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="J58" t="s">
         <v>352</v>
@@ -7439,7 +7460,7 @@
         <v>353</v>
       </c>
       <c r="L58" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="M58" t="s">
         <v>354</v>
@@ -7448,7 +7469,7 @@
         <v>355</v>
       </c>
       <c r="O58" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="P58" t="s">
         <v>356</v>
@@ -7465,7 +7486,7 @@
         <v>755</v>
       </c>
       <c r="C59" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -7511,7 +7532,7 @@
         <v>755</v>
       </c>
       <c r="C60" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D60" t="s">
         <v>362</v>
@@ -7520,7 +7541,7 @@
         <v>363</v>
       </c>
       <c r="F60" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G60" t="s">
         <v>364</v>
@@ -7564,7 +7585,7 @@
         <v>774</v>
       </c>
       <c r="C61" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D61" t="s">
         <v>367</v>
@@ -7606,7 +7627,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G62" t="s">
         <v>370</v>
@@ -7650,7 +7671,7 @@
         <v>759</v>
       </c>
       <c r="C63" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D63" t="s">
         <v>374</v>
@@ -7659,7 +7680,7 @@
         <v>375</v>
       </c>
       <c r="F63" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G63" t="s">
         <v>376</v>
@@ -7705,7 +7726,7 @@
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="G64" t="s">
         <v>379</v>
@@ -7749,7 +7770,7 @@
         <v>775</v>
       </c>
       <c r="C65" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D65" t="s">
         <v>383</v>
@@ -7760,7 +7781,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="J65" t="s">
         <v>385</v>
@@ -7769,7 +7790,7 @@
         <v>386</v>
       </c>
       <c r="L65" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="M65" t="s">
         <v>387</v>
@@ -7778,7 +7799,7 @@
         <v>388</v>
       </c>
       <c r="O65" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="P65" t="s">
         <v>389</v>
@@ -7795,7 +7816,7 @@
         <v>759</v>
       </c>
       <c r="C66" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D66" t="s">
         <v>392</v>
@@ -7806,7 +7827,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J66" t="s">
         <v>394</v>
@@ -7815,7 +7836,7 @@
         <v>395</v>
       </c>
       <c r="L66" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M66" t="s">
         <v>396</v>
@@ -7824,7 +7845,7 @@
         <v>397</v>
       </c>
       <c r="O66" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="P66" t="s">
         <v>398</v>
@@ -7841,7 +7862,7 @@
         <v>759</v>
       </c>
       <c r="C67" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D67" t="s">
         <v>401</v>
@@ -7852,7 +7873,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="J67" t="s">
         <v>403</v>
@@ -7861,7 +7882,7 @@
         <v>404</v>
       </c>
       <c r="L67" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M67" t="s">
         <v>405</v>
@@ -7870,7 +7891,7 @@
         <v>406</v>
       </c>
       <c r="O67" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="P67" t="s">
         <v>407</v>
@@ -7889,7 +7910,7 @@
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="G68" t="s">
         <v>410</v>
@@ -7914,7 +7935,7 @@
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G69" t="s">
         <v>413</v>
@@ -7958,7 +7979,7 @@
         <v>776</v>
       </c>
       <c r="C70" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D70" t="s">
         <v>416</v>
@@ -7969,7 +7990,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="J70" t="s">
         <v>418</v>
@@ -7978,7 +7999,7 @@
         <v>419</v>
       </c>
       <c r="L70" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="M70" t="s">
         <v>420</v>
@@ -7987,7 +8008,7 @@
         <v>421</v>
       </c>
       <c r="O70" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="P70" t="s">
         <v>422</v>
@@ -8004,7 +8025,7 @@
         <v>755</v>
       </c>
       <c r="C71" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -8029,7 +8050,7 @@
         <v>759</v>
       </c>
       <c r="C72" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -8054,7 +8075,7 @@
         <v>755</v>
       </c>
       <c r="C73" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D73" t="s">
         <v>431</v>
@@ -8079,7 +8100,7 @@
         <v>755</v>
       </c>
       <c r="C74" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D74" t="s">
         <v>434</v>
@@ -8104,7 +8125,7 @@
         <v>755</v>
       </c>
       <c r="C75" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="s">
@@ -8113,7 +8134,7 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
@@ -8132,7 +8153,7 @@
         <v>777</v>
       </c>
       <c r="C76" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="D76" t="s">
         <v>440</v>
@@ -8143,7 +8164,7 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="J76" t="s">
         <v>442</v>
@@ -8152,7 +8173,7 @@
         <v>443</v>
       </c>
       <c r="L76" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="M76" t="s">
         <v>444</v>
@@ -8161,7 +8182,7 @@
         <v>445</v>
       </c>
       <c r="O76" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="P76" t="s">
         <v>446</v>
@@ -8178,7 +8199,7 @@
         <v>755</v>
       </c>
       <c r="C77" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="s">
@@ -8187,7 +8208,7 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
@@ -8206,7 +8227,7 @@
         <v>755</v>
       </c>
       <c r="C78" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -8215,21 +8236,21 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
         <v>453</v>
       </c>
       <c r="L78" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="s">
         <v>454</v>
       </c>
       <c r="O78" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="P78" t="s">
         <v>455</v>
@@ -8246,7 +8267,7 @@
         <v>778</v>
       </c>
       <c r="C79" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D79" t="s">
         <v>458</v>
@@ -8257,21 +8278,21 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
         <v>460</v>
       </c>
       <c r="O79" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="P79" t="s">
         <v>455</v>
@@ -8294,7 +8315,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="M80" t="s">
         <v>463</v>
@@ -8313,7 +8334,7 @@
         <v>764</v>
       </c>
       <c r="C81" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D81" t="s">
         <v>167</v>
@@ -8324,7 +8345,7 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="J81" t="s">
         <v>466</v>
@@ -8333,7 +8354,7 @@
         <v>467</v>
       </c>
       <c r="L81" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="M81" t="s">
         <v>468</v>
@@ -8342,7 +8363,7 @@
         <v>469</v>
       </c>
       <c r="O81" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="P81" t="s">
         <v>470</v>
@@ -8359,7 +8380,7 @@
         <v>755</v>
       </c>
       <c r="C82" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -8384,7 +8405,7 @@
         <v>755</v>
       </c>
       <c r="C83" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D83" t="s">
         <v>476</v>
@@ -8409,7 +8430,7 @@
         <v>761</v>
       </c>
       <c r="C84" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D84" t="s">
         <v>479</v>
@@ -8422,7 +8443,7 @@
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="M84" t="s">
         <v>481</v>
@@ -8441,7 +8462,7 @@
         <v>761</v>
       </c>
       <c r="C85" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D85" t="s">
         <v>484</v>
@@ -8454,7 +8475,7 @@
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="M85" t="s">
         <v>486</v>
@@ -8473,7 +8494,7 @@
         <v>755</v>
       </c>
       <c r="C86" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D86"/>
       <c r="E86" t="s">
@@ -8496,7 +8517,7 @@
         <v>755</v>
       </c>
       <c r="C87" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="D87" t="s">
         <v>491</v>
@@ -8507,14 +8528,14 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="s">
         <v>493</v>
       </c>
       <c r="L87" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="s">
@@ -8531,7 +8552,7 @@
         <v>755</v>
       </c>
       <c r="C88" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D88" t="s">
         <v>495</v>
@@ -8542,7 +8563,7 @@
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="J88" t="s">
         <v>497</v>
@@ -8551,7 +8572,7 @@
         <v>498</v>
       </c>
       <c r="L88" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="M88" t="s">
         <v>499</v>
@@ -8560,7 +8581,7 @@
         <v>500</v>
       </c>
       <c r="O88" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="P88" t="s">
         <v>501</v>
@@ -8577,7 +8598,7 @@
         <v>759</v>
       </c>
       <c r="C89" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D89" t="s">
         <v>504</v>
@@ -8602,7 +8623,7 @@
         <v>769</v>
       </c>
       <c r="C90" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D90" t="s">
         <v>507</v>
@@ -8615,7 +8636,7 @@
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="M90" t="s">
         <v>509</v>
@@ -8624,7 +8645,7 @@
         <v>510</v>
       </c>
       <c r="O90" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="P90" t="s">
         <v>511</v>
@@ -8647,7 +8668,7 @@
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="M91" t="s">
         <v>514</v>
@@ -8656,7 +8677,7 @@
         <v>286</v>
       </c>
       <c r="O91" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="P91" t="s">
         <v>515</v>
@@ -8675,7 +8696,7 @@
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G92" t="s">
         <v>518</v>
@@ -8719,7 +8740,7 @@
         <v>755</v>
       </c>
       <c r="C93" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D93" t="s">
         <v>521</v>
@@ -8728,7 +8749,7 @@
         <v>522</v>
       </c>
       <c r="F93" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G93" t="s">
         <v>523</v>
@@ -8751,7 +8772,7 @@
         <v>755</v>
       </c>
       <c r="C94" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D94" t="s">
         <v>526</v>
@@ -8760,7 +8781,7 @@
         <v>522</v>
       </c>
       <c r="F94" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="G94" t="s">
         <v>527</v>
@@ -8783,7 +8804,7 @@
         <v>755</v>
       </c>
       <c r="C95" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D95" t="s">
         <v>530</v>
@@ -8792,7 +8813,7 @@
         <v>531</v>
       </c>
       <c r="F95" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G95" t="s">
         <v>532</v>
@@ -8819,7 +8840,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J96" t="s">
         <v>535</v>
@@ -8828,7 +8849,7 @@
         <v>536</v>
       </c>
       <c r="L96" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="M96" t="s">
         <v>537</v>
@@ -8837,7 +8858,7 @@
         <v>538</v>
       </c>
       <c r="O96" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="P96" t="s">
         <v>539</v>
@@ -8858,7 +8879,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J97" t="s">
         <v>542</v>
@@ -8867,7 +8888,7 @@
         <v>543</v>
       </c>
       <c r="L97" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="M97" t="s">
         <v>544</v>
@@ -8890,7 +8911,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="J98" t="s">
         <v>542</v>
@@ -8899,7 +8920,7 @@
         <v>543</v>
       </c>
       <c r="L98" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -8918,7 +8939,7 @@
         <v>755</v>
       </c>
       <c r="C99" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D99" t="s">
         <v>550</v>
@@ -8943,7 +8964,7 @@
         <v>755</v>
       </c>
       <c r="C100" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D100" t="s">
         <v>553</v>
@@ -8968,7 +8989,7 @@
         <v>755</v>
       </c>
       <c r="C101" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D101" t="s">
         <v>556</v>
@@ -8977,7 +8998,7 @@
         <v>557</v>
       </c>
       <c r="F101" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G101" t="s">
         <v>558</v>
@@ -9000,7 +9021,7 @@
         <v>758</v>
       </c>
       <c r="C102" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D102" t="s">
         <v>561</v>
@@ -9011,7 +9032,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="J102" t="s">
         <v>563</v>
@@ -9020,7 +9041,7 @@
         <v>564</v>
       </c>
       <c r="L102" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="M102" t="s">
         <v>565</v>
@@ -9029,7 +9050,7 @@
         <v>566</v>
       </c>
       <c r="O102" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="P102" t="s">
         <v>567</v>
@@ -9046,7 +9067,7 @@
         <v>755</v>
       </c>
       <c r="C103" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="D103" t="s">
         <v>570</v>
@@ -9071,7 +9092,7 @@
         <v>781</v>
       </c>
       <c r="C104" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -9096,7 +9117,7 @@
         <v>782</v>
       </c>
       <c r="C105" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="D105" t="s">
         <v>576</v>
@@ -9145,7 +9166,7 @@
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="M107" t="s">
         <v>580</v>
@@ -9164,7 +9185,7 @@
         <v>784</v>
       </c>
       <c r="C108" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D108" t="s">
         <v>583</v>
@@ -9175,7 +9196,7 @@
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J108" t="s">
         <v>585</v>
@@ -9184,7 +9205,7 @@
         <v>586</v>
       </c>
       <c r="L108" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="M108" t="s">
         <v>587</v>
@@ -9193,7 +9214,7 @@
         <v>588</v>
       </c>
       <c r="O108" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="P108" t="s">
         <v>589</v>
@@ -9210,7 +9231,7 @@
         <v>785</v>
       </c>
       <c r="C109" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D109" t="s">
         <v>592</v>
@@ -9221,7 +9242,7 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J109" t="s">
         <v>594</v>
@@ -9230,7 +9251,7 @@
         <v>595</v>
       </c>
       <c r="L109" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="M109" t="s">
         <v>596</v>
@@ -9239,7 +9260,7 @@
         <v>597</v>
       </c>
       <c r="O109" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="P109" t="s">
         <v>598</v>
@@ -9256,7 +9277,7 @@
         <v>757</v>
       </c>
       <c r="C110" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="D110" t="s">
         <v>601</v>
@@ -9267,7 +9288,7 @@
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J110" t="s">
         <v>603</v>
@@ -9276,7 +9297,7 @@
         <v>604</v>
       </c>
       <c r="L110" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="M110" t="s">
         <v>514</v>
@@ -9285,7 +9306,7 @@
         <v>286</v>
       </c>
       <c r="O110" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="P110" t="s">
         <v>605</v>
@@ -9302,7 +9323,7 @@
         <v>784</v>
       </c>
       <c r="C111" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D111" t="s">
         <v>608</v>
@@ -9313,7 +9334,7 @@
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J111" t="s">
         <v>610</v>
@@ -9322,7 +9343,7 @@
         <v>611</v>
       </c>
       <c r="L111" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="M111" t="s">
         <v>612</v>
@@ -9331,7 +9352,7 @@
         <v>613</v>
       </c>
       <c r="O111" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="P111" t="s">
         <v>614</v>
@@ -9348,7 +9369,7 @@
         <v>786</v>
       </c>
       <c r="C112" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D112" t="s">
         <v>617</v>
@@ -9359,7 +9380,7 @@
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J112" t="s">
         <v>619</v>
@@ -9368,7 +9389,7 @@
         <v>620</v>
       </c>
       <c r="L112" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="M112" t="s">
         <v>621</v>
@@ -9377,7 +9398,7 @@
         <v>622</v>
       </c>
       <c r="O112" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="P112" t="s">
         <v>623</v>
@@ -9398,7 +9419,7 @@
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J113" t="s">
         <v>626</v>
@@ -9407,7 +9428,7 @@
         <v>627</v>
       </c>
       <c r="L113" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M113" t="s">
         <v>628</v>
@@ -9416,7 +9437,7 @@
         <v>629</v>
       </c>
       <c r="O113" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="P113" t="s">
         <v>630</v>
@@ -9437,7 +9458,7 @@
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="J114" t="s">
         <v>633</v>
@@ -9446,7 +9467,7 @@
         <v>634</v>
       </c>
       <c r="L114" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="M114" t="s">
         <v>635</v>
@@ -9455,7 +9476,7 @@
         <v>636</v>
       </c>
       <c r="O114" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="P114" t="s">
         <v>637</v>
@@ -9472,7 +9493,7 @@
         <v>788</v>
       </c>
       <c r="C115" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D115" t="s">
         <v>640</v>
@@ -9483,7 +9504,7 @@
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="J115" t="s">
         <v>642</v>
@@ -9492,7 +9513,7 @@
         <v>643</v>
       </c>
       <c r="L115" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="M115" t="s">
         <v>644</v>
@@ -9501,7 +9522,7 @@
         <v>645</v>
       </c>
       <c r="O115" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="P115" t="s">
         <v>646</v>
@@ -9518,7 +9539,7 @@
         <v>789</v>
       </c>
       <c r="C116" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D116" t="s">
         <v>649</v>
@@ -9529,7 +9550,7 @@
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J116" t="s">
         <v>651</v>
@@ -9538,7 +9559,7 @@
         <v>652</v>
       </c>
       <c r="L116" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="M116" t="s">
         <v>653</v>
@@ -9547,7 +9568,7 @@
         <v>654</v>
       </c>
       <c r="O116" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="P116" t="s">
         <v>646</v>
@@ -9561,10 +9582,10 @@
         <v>655</v>
       </c>
       <c r="B117" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="C117" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D117" t="s">
         <v>656</v>
@@ -9575,7 +9596,7 @@
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J117" t="s">
         <v>658</v>
@@ -9584,7 +9605,7 @@
         <v>659</v>
       </c>
       <c r="L117" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="M117" t="s">
         <v>660</v>
@@ -9593,7 +9614,7 @@
         <v>661</v>
       </c>
       <c r="O117" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="P117" t="s">
         <v>662</v>
@@ -9610,7 +9631,7 @@
         <v>758</v>
       </c>
       <c r="C118" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D118" t="s">
         <v>665</v>
@@ -9621,7 +9642,7 @@
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="J118" t="s">
         <v>667</v>
@@ -9630,7 +9651,7 @@
         <v>668</v>
       </c>
       <c r="L118" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="M118" t="s">
         <v>669</v>
@@ -9639,7 +9660,7 @@
         <v>670</v>
       </c>
       <c r="O118" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="P118" t="s">
         <v>671</v>
@@ -9653,10 +9674,10 @@
         <v>673</v>
       </c>
       <c r="B119" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C119" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="D119" t="s">
         <v>674</v>
@@ -9667,7 +9688,7 @@
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="J119" t="s">
         <v>676</v>
@@ -9676,7 +9697,7 @@
         <v>677</v>
       </c>
       <c r="L119" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="M119" t="s">
         <v>678</v>
@@ -9685,7 +9706,7 @@
         <v>679</v>
       </c>
       <c r="O119" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="P119" t="s">
         <v>680</v>
@@ -9699,7 +9720,7 @@
         <v>682</v>
       </c>
       <c r="B120" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C120" t="s">
         <v>683</v>
@@ -9724,7 +9745,7 @@
         <v>684</v>
       </c>
       <c r="B121" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C121" t="s">
         <v>683</v>
@@ -9738,7 +9759,7 @@
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J121" t="s">
         <v>685</v>
@@ -9747,7 +9768,7 @@
         <v>686</v>
       </c>
       <c r="L121" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="M121" t="s">
         <v>687</v>
@@ -9756,7 +9777,7 @@
         <v>688</v>
       </c>
       <c r="O121" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="P121" t="s">
         <v>689</v>
@@ -9770,7 +9791,7 @@
         <v>691</v>
       </c>
       <c r="B122" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C122" t="s">
         <v>683</v>
@@ -9784,7 +9805,7 @@
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="J122" t="s">
         <v>692</v>
@@ -9793,7 +9814,7 @@
         <v>693</v>
       </c>
       <c r="L122" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="M122" t="s">
         <v>694</v>
@@ -9802,7 +9823,7 @@
         <v>695</v>
       </c>
       <c r="O122" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="P122" t="s">
         <v>696</v>
@@ -9819,7 +9840,7 @@
         <v>757</v>
       </c>
       <c r="C123" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D123" t="s">
         <v>699</v>
@@ -9832,7 +9853,7 @@
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="M123" t="s">
         <v>701</v>
@@ -9841,7 +9862,7 @@
         <v>702</v>
       </c>
       <c r="O123" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="P123" t="s">
         <v>703</v>
@@ -9858,7 +9879,7 @@
         <v>757</v>
       </c>
       <c r="C124" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D124" t="s">
         <v>706</v>
@@ -9871,7 +9892,7 @@
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M124" t="s">
         <v>708</v>
@@ -9887,10 +9908,10 @@
         <v>710</v>
       </c>
       <c r="B125" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C125" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="D125" t="s">
         <v>711</v>
@@ -9901,7 +9922,7 @@
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J125" t="s">
         <v>713</v>
@@ -9910,7 +9931,7 @@
         <v>714</v>
       </c>
       <c r="L125" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="M125" t="s">
         <v>715</v>
@@ -9919,7 +9940,7 @@
         <v>716</v>
       </c>
       <c r="O125" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="P125" t="s">
         <v>717</v>
@@ -9936,7 +9957,7 @@
         <v>757</v>
       </c>
       <c r="C126" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D126" t="s">
         <v>720</v>
@@ -9947,7 +9968,7 @@
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J126" t="s">
         <v>722</v>
@@ -9956,7 +9977,7 @@
         <v>723</v>
       </c>
       <c r="L126" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M126" t="s">
         <v>724</v>
@@ -9965,7 +9986,7 @@
         <v>725</v>
       </c>
       <c r="O126" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="P126" t="s">
         <v>726</v>
@@ -9979,10 +10000,10 @@
         <v>728</v>
       </c>
       <c r="B127" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C127" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D127" t="s">
         <v>729</v>
@@ -9993,7 +10014,7 @@
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J127" t="s">
         <v>731</v>
@@ -10002,7 +10023,7 @@
         <v>732</v>
       </c>
       <c r="L127" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="M127" t="s">
         <v>733</v>
@@ -10011,7 +10032,7 @@
         <v>734</v>
       </c>
       <c r="O127" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="P127" t="s">
         <v>735</v>
@@ -10025,10 +10046,10 @@
         <v>737</v>
       </c>
       <c r="B128" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C128" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D128" t="s">
         <v>738</v>
@@ -10039,7 +10060,7 @@
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J128" t="s">
         <v>740</v>
@@ -10048,7 +10069,7 @@
         <v>741</v>
       </c>
       <c r="L128" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="M128" t="s">
         <v>742</v>
@@ -10057,7 +10078,7 @@
         <v>743</v>
       </c>
       <c r="O128" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="P128" t="s">
         <v>744</v>
@@ -10071,10 +10092,10 @@
         <v>746</v>
       </c>
       <c r="B129" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C129" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D129" t="s">
         <v>747</v>
@@ -10103,7 +10124,7 @@
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="J130" t="s">
         <v>750</v>
@@ -10112,7 +10133,7 @@
         <v>751</v>
       </c>
       <c r="L130" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="M130" t="s">
         <v>752</v>
@@ -10121,7 +10142,7 @@
         <v>460</v>
       </c>
       <c r="O130" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="P130" t="s">
         <v>753</v>
